--- a/tmp/LATENCY.converted/LATENCY.converted.txt-total-recap.xlsx
+++ b/tmp/LATENCY.converted/LATENCY.converted.txt-total-recap.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,23 +471,7 @@
       </c>
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="2" t="n"/>
-      <c r="D1" s="2" t="n"/>
-      <c r="E1" s="2" t="n"/>
-      <c r="F1" s="2" t="n"/>
-      <c r="G1" s="2" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>11</v>
-      </c>
+      <c r="D1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -495,10 +479,6 @@
           <t xml:space="preserve">Length: </t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -508,250 +488,296 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Line count</t>
+          <t>Characters</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Word count</t>
+          <t>Blocks (50)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>All characters</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>No space</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>No punctuation</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>No space, no punctuation</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>No apostrophe</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+          <t>Blocks (40)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1 - HANA</t>
+        </is>
       </c>
       <c r="B4" t="n">
+        <v>6789</v>
+      </c>
+      <c r="C4" t="n">
+        <v>136</v>
+      </c>
+      <c r="D4" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2 - ALEXEY</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>410</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3 - MAIN TITLE</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>7</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4 - COURIER</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>454</v>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>5 - YOUNG GIRL</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>238</v>
+      </c>
+      <c r="C8" t="n">
         <v>5</v>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="D8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>6 - TEXT ON PHONE</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>64</v>
+      </c>
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" t="n">
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>7 - JEN</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3645</v>
+      </c>
+      <c r="C10" t="n">
+        <v>73</v>
+      </c>
+      <c r="D10" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>8 - BOX SIGN</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>9 - SIGN</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>14</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>10 - TEXT ON COMPUTER</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>424</v>
+      </c>
+      <c r="C13" t="n">
+        <v>9</v>
+      </c>
+      <c r="D13" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>11 - OMNIA</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1431</v>
+      </c>
+      <c r="C14" t="n">
+        <v>29</v>
+      </c>
+      <c r="D14" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>12 - LANDLORD</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>273</v>
+      </c>
+      <c r="C15" t="n">
+        <v>6</v>
+      </c>
+      <c r="D15" t="n">
         <v>7</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" t="n">
-        <v>7</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>13 - GAME VOICE</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>24</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>14 - TEXT ON BOX</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>9</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>15 - TEXT ON TROPHY</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>18</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>16 - TEXT ON TAG</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>23</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>17 - POLICE1</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>210</v>
+      </c>
+      <c r="C20" t="n">
+        <v>5</v>
+      </c>
+      <c r="D20" t="n">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/tmp/LATENCY.converted/LATENCY.converted.txt-total-recap.xlsx
+++ b/tmp/LATENCY.converted/LATENCY.converted.txt-total-recap.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,8 +470,7 @@
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
-      <c r="C1" s="2" t="n"/>
-      <c r="D1" s="3" t="n"/>
+      <c r="C1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -496,11 +495,6 @@
           <t>Blocks (50)</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Blocks (40)</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -514,9 +508,6 @@
       <c r="C4" t="n">
         <v>136</v>
       </c>
-      <c r="D4" t="n">
-        <v>170</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -530,9 +521,6 @@
       <c r="C5" t="n">
         <v>9</v>
       </c>
-      <c r="D5" t="n">
-        <v>11</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -546,9 +534,6 @@
       <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -562,9 +547,6 @@
       <c r="C7" t="n">
         <v>10</v>
       </c>
-      <c r="D7" t="n">
-        <v>12</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -578,9 +560,6 @@
       <c r="C8" t="n">
         <v>5</v>
       </c>
-      <c r="D8" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -594,9 +573,6 @@
       <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D9" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -610,9 +586,6 @@
       <c r="C10" t="n">
         <v>73</v>
       </c>
-      <c r="D10" t="n">
-        <v>92</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -626,9 +599,6 @@
       <c r="C11" t="n">
         <v>1</v>
       </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -642,9 +612,6 @@
       <c r="C12" t="n">
         <v>1</v>
       </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -658,9 +625,6 @@
       <c r="C13" t="n">
         <v>9</v>
       </c>
-      <c r="D13" t="n">
-        <v>11</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -674,9 +638,6 @@
       <c r="C14" t="n">
         <v>29</v>
       </c>
-      <c r="D14" t="n">
-        <v>36</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -690,9 +651,6 @@
       <c r="C15" t="n">
         <v>6</v>
       </c>
-      <c r="D15" t="n">
-        <v>7</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -706,9 +664,6 @@
       <c r="C16" t="n">
         <v>1</v>
       </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -722,9 +677,6 @@
       <c r="C17" t="n">
         <v>1</v>
       </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -738,9 +690,6 @@
       <c r="C18" t="n">
         <v>1</v>
       </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -754,9 +703,6 @@
       <c r="C19" t="n">
         <v>1</v>
       </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -770,14 +716,11 @@
       <c r="C20" t="n">
         <v>5</v>
       </c>
-      <c r="D20" t="n">
-        <v>6</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/tmp/LATENCY.converted/LATENCY.converted.txt-total-recap.xlsx
+++ b/tmp/LATENCY.converted/LATENCY.converted.txt-total-recap.xlsx
@@ -462,6 +462,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="50" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -487,12 +490,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Characters</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Blocks (50)</t>
+          <t>Lines</t>
         </is>
       </c>
     </row>
@@ -503,9 +501,6 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6789</v>
-      </c>
-      <c r="C4" t="n">
         <v>136</v>
       </c>
     </row>
@@ -516,9 +511,6 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>410</v>
-      </c>
-      <c r="C5" t="n">
         <v>9</v>
       </c>
     </row>
@@ -529,9 +521,6 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
-      </c>
-      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -542,9 +531,6 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>454</v>
-      </c>
-      <c r="C7" t="n">
         <v>10</v>
       </c>
     </row>
@@ -555,9 +541,6 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>238</v>
-      </c>
-      <c r="C8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -568,9 +551,6 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>64</v>
-      </c>
-      <c r="C9" t="n">
         <v>2</v>
       </c>
     </row>
@@ -581,9 +561,6 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3645</v>
-      </c>
-      <c r="C10" t="n">
         <v>73</v>
       </c>
     </row>
@@ -594,9 +571,6 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
-      </c>
-      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -607,9 +581,6 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>14</v>
-      </c>
-      <c r="C12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -620,9 +591,6 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>424</v>
-      </c>
-      <c r="C13" t="n">
         <v>9</v>
       </c>
     </row>
@@ -633,9 +601,6 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1431</v>
-      </c>
-      <c r="C14" t="n">
         <v>29</v>
       </c>
     </row>
@@ -646,9 +611,6 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>273</v>
-      </c>
-      <c r="C15" t="n">
         <v>6</v>
       </c>
     </row>
@@ -659,9 +621,6 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>24</v>
-      </c>
-      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -672,9 +631,6 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9</v>
-      </c>
-      <c r="C17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -685,9 +641,6 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>18</v>
-      </c>
-      <c r="C18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -698,9 +651,6 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>23</v>
-      </c>
-      <c r="C19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -711,9 +661,6 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>210</v>
-      </c>
-      <c r="C20" t="n">
         <v>5</v>
       </c>
     </row>
